--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\QuyetToan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\QuyetToan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -638,14 +638,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -671,24 +668,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,11 +1482,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1508,11 +1508,11 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1534,60 +1534,60 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2"/>
@@ -1609,123 +1609,123 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
     </row>
     <row r="6" spans="1:26" s="10" customFormat="1" ht="75" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="10" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
     </row>
     <row r="8" spans="1:26" s="10" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1735,9 +1735,9 @@
       <c r="M8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="S8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1" ht="57.75" customHeight="1">
       <c r="A9" s="12">
@@ -1906,421 +1906,433 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="15.75">
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
     </row>
     <row r="13" spans="1:26" ht="16.5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
     </row>
     <row r="14" spans="1:26" ht="16.5">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="35" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="36" t="s">
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
     </row>
     <row r="15" spans="1:26" ht="16.5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:26" ht="16.5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="16.5">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="37" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="37" t="s">
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" ht="16.5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
     </row>
     <row r="19" spans="1:24" ht="16.5">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="16.5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="16.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="16.5">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="37" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
     </row>
     <row r="23" spans="1:24" ht="16.5">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="37" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
     </row>
     <row r="24" spans="1:24" ht="16.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="16.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="16.5">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="37" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="P22:X22"/>
-    <mergeCell ref="P23:X23"/>
-    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="P12:X12"/>
+    <mergeCell ref="P13:X13"/>
+    <mergeCell ref="P14:X14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="A4:X4"/>
@@ -2337,31 +2349,19 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="P12:X12"/>
-    <mergeCell ref="P13:X13"/>
-    <mergeCell ref="P14:X14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="P22:X22"/>
+    <mergeCell ref="P23:X23"/>
+    <mergeCell ref="P26:X26"/>
     <mergeCell ref="I17:N17"/>
     <mergeCell ref="P17:X17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0"/>
-  <pageSetup paperSize="8" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/QuyetToan/rpt_vdt_quyettoanniendo_vonnam.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">Sheet1!$A$10:$X$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -590,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,13 +634,18 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1470,8 +1475,8 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,11 +1487,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1508,11 +1513,11 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1534,60 +1539,60 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2"/>
@@ -1609,123 +1614,123 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-    </row>
-    <row r="6" spans="1:26" s="10" customFormat="1" ht="75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+    </row>
+    <row r="6" spans="1:26" s="10" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="W6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="29" t="s">
+      <c r="X6" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="10" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+    <row r="7" spans="1:26" s="10" customFormat="1" ht="16.5">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="25"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-    </row>
-    <row r="8" spans="1:26" s="10" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+    </row>
+    <row r="8" spans="1:26" s="10" customFormat="1" ht="101.25" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1735,9 +1740,9 @@
       <c r="M8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1747,13 +1752,13 @@
       <c r="S8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="10" customFormat="1" ht="57.75" customHeight="1">
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+    </row>
+    <row r="9" spans="1:26" s="10" customFormat="1" ht="33">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -1827,7 +1832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="10" customFormat="1" ht="81" customHeight="1">
+    <row r="10" spans="1:26" s="24" customFormat="1" ht="115.5">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
@@ -1900,417 +1905,417 @@
       <c r="X10" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="Y10" s="19" t="s">
+      <c r="Y10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Z10" s="20"/>
+      <c r="Z10" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="15.75">
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="16.5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="35" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="38" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
     </row>
     <row r="14" spans="1:26" ht="16.5">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="36" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="39" t="s">
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
     </row>
     <row r="15" spans="1:26" ht="16.5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
     </row>
     <row r="16" spans="1:26" ht="16.5">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
     </row>
     <row r="17" spans="1:24" ht="16.5">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="24" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="24" t="s">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
     </row>
     <row r="18" spans="1:24" ht="16.5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="16.5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
     </row>
     <row r="20" spans="1:24" ht="16.5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="1:24" ht="16.5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" ht="16.5">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="24" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
     </row>
     <row r="23" spans="1:24" ht="16.5">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="24" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
     </row>
     <row r="24" spans="1:24" ht="16.5">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24" ht="16.5">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" ht="16.5">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="24" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="44">
